--- a/analytics/modified_data/tbf_market_garden_data_2023_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_data_2023_clean.xlsx
@@ -39,13 +39,13 @@
     <t>eggplant- black beauty</t>
   </si>
   <si>
-    <t>pepper- sweet- ca wonder</t>
+    <t>pepper- califonia wonder</t>
   </si>
   <si>
     <t>pepper- anaheim</t>
   </si>
   <si>
-    <t>pepper- jalapeno- early</t>
+    <t>pepper- jalapeno, early</t>
   </si>
   <si>
     <t>pepper- sweet banana</t>
@@ -72,7 +72,7 @@
     <t>sweet corn- country gentleman</t>
   </si>
   <si>
-    <t>sweet corn- ornamental- glas gm</t>
+    <t>corn- ornamental, glass gem</t>
   </si>
   <si>
     <t>sunflower- mammoth</t>
@@ -81,7 +81,7 @@
     <t>bean- fin de bagnol</t>
   </si>
   <si>
-    <t>pumpkin- ct field</t>
+    <t>pumpkin- connecticut field</t>
   </si>
   <si>
     <t>garlic- german extra hardy hardneck</t>

--- a/analytics/modified_data/tbf_market_garden_data_2023_clean.xlsx
+++ b/analytics/modified_data/tbf_market_garden_data_2023_clean.xlsx
@@ -16948,10 +16948,10 @@
         <v>147</v>
       </c>
       <c r="BS27" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="BT27" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="BU27" t="s">
         <v>153</v>
@@ -17510,10 +17510,10 @@
         <v>147</v>
       </c>
       <c r="BS28" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="BT28" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="BU28" t="s">
         <v>153</v>
